--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col4a3-Itgav.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col4a3-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.488934477559002</v>
+        <v>0.6813643333333333</v>
       </c>
       <c r="H2">
-        <v>0.488934477559002</v>
+        <v>2.044093</v>
       </c>
       <c r="I2">
-        <v>0.3217041568166616</v>
+        <v>0.3450055461675409</v>
       </c>
       <c r="J2">
-        <v>0.3217041568166616</v>
+        <v>0.3450055461675409</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N2">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q2">
-        <v>5.298025696143277</v>
+        <v>9.158401291339</v>
       </c>
       <c r="R2">
-        <v>5.298025696143277</v>
+        <v>82.42561162205101</v>
       </c>
       <c r="S2">
-        <v>0.0253550049734425</v>
+        <v>0.03095763102267895</v>
       </c>
       <c r="T2">
-        <v>0.0253550049734425</v>
+        <v>0.03095763102267896</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.488934477559002</v>
+        <v>0.6813643333333333</v>
       </c>
       <c r="H3">
-        <v>0.488934477559002</v>
+        <v>2.044093</v>
       </c>
       <c r="I3">
-        <v>0.3217041568166616</v>
+        <v>0.3450055461675409</v>
       </c>
       <c r="J3">
-        <v>0.3217041568166616</v>
+        <v>0.3450055461675409</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N3">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q3">
-        <v>26.67117781769799</v>
+        <v>37.27848857091833</v>
       </c>
       <c r="R3">
-        <v>26.67117781769799</v>
+        <v>335.506397138265</v>
       </c>
       <c r="S3">
-        <v>0.127641480996889</v>
+        <v>0.1260103873536334</v>
       </c>
       <c r="T3">
-        <v>0.127641480996889</v>
+        <v>0.1260103873536335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.488934477559002</v>
+        <v>0.6813643333333333</v>
       </c>
       <c r="H4">
-        <v>0.488934477559002</v>
+        <v>2.044093</v>
       </c>
       <c r="I4">
-        <v>0.3217041568166616</v>
+        <v>0.3450055461675409</v>
       </c>
       <c r="J4">
-        <v>0.3217041568166616</v>
+        <v>0.3450055461675409</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N4">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q4">
-        <v>27.21850422481021</v>
+        <v>43.38731160374333</v>
       </c>
       <c r="R4">
-        <v>27.21850422481021</v>
+        <v>390.48580443369</v>
       </c>
       <c r="S4">
-        <v>0.1302608461284188</v>
+        <v>0.1466596997627634</v>
       </c>
       <c r="T4">
-        <v>0.1302608461284188</v>
+        <v>0.1466596997627635</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.488934477559002</v>
+        <v>0.6813643333333333</v>
       </c>
       <c r="H5">
-        <v>0.488934477559002</v>
+        <v>2.044093</v>
       </c>
       <c r="I5">
-        <v>0.3217041568166616</v>
+        <v>0.3450055461675409</v>
       </c>
       <c r="J5">
-        <v>0.3217041568166616</v>
+        <v>0.3450055461675409</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N5">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q5">
-        <v>8.033611726914</v>
+        <v>12.24107727658756</v>
       </c>
       <c r="R5">
-        <v>8.033611726914</v>
+        <v>110.169695489288</v>
       </c>
       <c r="S5">
-        <v>0.03844682471791128</v>
+        <v>0.04137782802846503</v>
       </c>
       <c r="T5">
-        <v>0.03844682471791128</v>
+        <v>0.04137782802846504</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.844078041586818</v>
+        <v>0.845217</v>
       </c>
       <c r="H6">
-        <v>0.844078041586818</v>
+        <v>2.535651</v>
       </c>
       <c r="I6">
-        <v>0.5553779230538676</v>
+        <v>0.4279715542029013</v>
       </c>
       <c r="J6">
-        <v>0.5553779230538676</v>
+        <v>0.4279715542029013</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N6">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q6">
-        <v>9.146311743453611</v>
+        <v>11.360789060373</v>
       </c>
       <c r="R6">
-        <v>9.146311743453611</v>
+        <v>102.247101543357</v>
       </c>
       <c r="S6">
-        <v>0.04377192430620674</v>
+        <v>0.03840223906656248</v>
       </c>
       <c r="T6">
-        <v>0.04377192430620674</v>
+        <v>0.03840223906656249</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.844078041586818</v>
+        <v>0.845217</v>
       </c>
       <c r="H7">
-        <v>0.844078041586818</v>
+        <v>2.535651</v>
       </c>
       <c r="I7">
-        <v>0.5553779230538676</v>
+        <v>0.4279715542029013</v>
       </c>
       <c r="J7">
-        <v>0.5553779230538676</v>
+        <v>0.4279715542029013</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N7">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q7">
-        <v>46.04411546424358</v>
+        <v>46.243119478095</v>
       </c>
       <c r="R7">
-        <v>46.04411546424358</v>
+        <v>416.188075302855</v>
       </c>
       <c r="S7">
-        <v>0.2203554387143699</v>
+        <v>0.1563130271976998</v>
       </c>
       <c r="T7">
-        <v>0.2203554387143699</v>
+        <v>0.1563130271976999</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.844078041586818</v>
+        <v>0.845217</v>
       </c>
       <c r="H8">
-        <v>0.844078041586818</v>
+        <v>2.535651</v>
       </c>
       <c r="I8">
-        <v>0.5553779230538676</v>
+        <v>0.4279715542029013</v>
       </c>
       <c r="J8">
-        <v>0.5553779230538676</v>
+        <v>0.4279715542029013</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N8">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q8">
-        <v>46.98899913072277</v>
+        <v>53.82097588287</v>
       </c>
       <c r="R8">
-        <v>46.98899913072277</v>
+        <v>484.38878294583</v>
       </c>
       <c r="S8">
-        <v>0.2248774118864412</v>
+        <v>0.1819280308494529</v>
       </c>
       <c r="T8">
-        <v>0.2248774118864412</v>
+        <v>0.181928030849453</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.844078041586818</v>
+        <v>0.845217</v>
       </c>
       <c r="H9">
-        <v>0.844078041586818</v>
+        <v>2.535651</v>
       </c>
       <c r="I9">
-        <v>0.5553779230538676</v>
+        <v>0.4279715542029013</v>
       </c>
       <c r="J9">
-        <v>0.5553779230538676</v>
+        <v>0.4279715542029013</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N9">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q9">
-        <v>13.86892429263013</v>
+        <v>15.184778695224</v>
       </c>
       <c r="R9">
-        <v>13.86892429263013</v>
+        <v>136.663008257016</v>
       </c>
       <c r="S9">
-        <v>0.06637314814684973</v>
+        <v>0.05132825708918595</v>
       </c>
       <c r="T9">
-        <v>0.06637314814684973</v>
+        <v>0.05132825708918596</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.186813902735463</v>
+        <v>0.009069333333333334</v>
       </c>
       <c r="H10">
-        <v>0.186813902735463</v>
+        <v>0.027208</v>
       </c>
       <c r="I10">
-        <v>0.1229179201294709</v>
+        <v>0.004592213221280271</v>
       </c>
       <c r="J10">
-        <v>0.1229179201294709</v>
+        <v>0.004592213221280271</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N10">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q10">
-        <v>2.024289352697278</v>
+        <v>0.121903348984</v>
       </c>
       <c r="R10">
-        <v>2.024289352697278</v>
+        <v>1.097130140856</v>
       </c>
       <c r="S10">
-        <v>0.009687734554154594</v>
+        <v>0.0004120630640900628</v>
       </c>
       <c r="T10">
-        <v>0.009687734554154594</v>
+        <v>0.0004120630640900629</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.186813902735463</v>
+        <v>0.009069333333333334</v>
       </c>
       <c r="H11">
-        <v>0.186813902735463</v>
+        <v>0.027208</v>
       </c>
       <c r="I11">
-        <v>0.1229179201294709</v>
+        <v>0.004592213221280271</v>
       </c>
       <c r="J11">
-        <v>0.1229179201294709</v>
+        <v>0.004592213221280271</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N11">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q11">
-        <v>10.19062276718746</v>
+        <v>0.4961971480933333</v>
       </c>
       <c r="R11">
-        <v>10.19062276718746</v>
+        <v>4.46577433284</v>
       </c>
       <c r="S11">
-        <v>0.04876973154973666</v>
+        <v>0.001677267433095098</v>
       </c>
       <c r="T11">
-        <v>0.04876973154973666</v>
+        <v>0.001677267433095098</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.186813902735463</v>
+        <v>0.009069333333333334</v>
       </c>
       <c r="H12">
-        <v>0.186813902735463</v>
+        <v>0.027208</v>
       </c>
       <c r="I12">
-        <v>0.1229179201294709</v>
+        <v>0.004592213221280271</v>
       </c>
       <c r="J12">
-        <v>0.1229179201294709</v>
+        <v>0.004592213221280271</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N12">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q12">
-        <v>10.39974727543095</v>
+        <v>0.5775089362933333</v>
       </c>
       <c r="R12">
-        <v>10.39974727543095</v>
+        <v>5.19758042664</v>
       </c>
       <c r="S12">
-        <v>0.04977054831633752</v>
+        <v>0.001952121117358783</v>
       </c>
       <c r="T12">
-        <v>0.04977054831633752</v>
+        <v>0.001952121117358784</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.009069333333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.027208</v>
+      </c>
+      <c r="I13">
+        <v>0.004592213221280271</v>
+      </c>
+      <c r="J13">
+        <v>0.004592213221280271</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>17.96553866666667</v>
+      </c>
+      <c r="N13">
+        <v>53.896616</v>
+      </c>
+      <c r="O13">
+        <v>0.119933805378222</v>
+      </c>
+      <c r="P13">
+        <v>0.119933805378222</v>
+      </c>
+      <c r="Q13">
+        <v>0.1629354586808889</v>
+      </c>
+      <c r="R13">
+        <v>1.466419128128</v>
+      </c>
+      <c r="S13">
+        <v>0.0005507616067363259</v>
+      </c>
+      <c r="T13">
+        <v>0.000550761606736326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4392866666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.31786</v>
+      </c>
+      <c r="I14">
+        <v>0.2224306864082776</v>
+      </c>
+      <c r="J14">
+        <v>0.2224306864082776</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.441269</v>
+      </c>
+      <c r="N14">
+        <v>40.323807</v>
+      </c>
+      <c r="O14">
+        <v>0.08973082133481231</v>
+      </c>
+      <c r="P14">
+        <v>0.08973082133481232</v>
+      </c>
+      <c r="Q14">
+        <v>5.90457025478</v>
+      </c>
+      <c r="R14">
+        <v>53.14113229302001</v>
+      </c>
+      <c r="S14">
+        <v>0.01995888818148082</v>
+      </c>
+      <c r="T14">
+        <v>0.01995888818148083</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4392866666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.31786</v>
+      </c>
+      <c r="I15">
+        <v>0.2224306864082776</v>
+      </c>
+      <c r="J15">
+        <v>0.2224306864082776</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>54.711535</v>
+      </c>
+      <c r="N15">
+        <v>164.134605</v>
+      </c>
+      <c r="O15">
+        <v>0.3652416280068742</v>
+      </c>
+      <c r="P15">
+        <v>0.3652416280068742</v>
+      </c>
+      <c r="Q15">
+        <v>24.03404783836666</v>
+      </c>
+      <c r="R15">
+        <v>216.3064305453</v>
+      </c>
+      <c r="S15">
+        <v>0.0812409460224458</v>
+      </c>
+      <c r="T15">
+        <v>0.08124094602244583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.186813902735463</v>
-      </c>
-      <c r="H13">
-        <v>0.186813902735463</v>
-      </c>
-      <c r="I13">
-        <v>0.1229179201294709</v>
-      </c>
-      <c r="J13">
-        <v>0.1229179201294709</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>16.4308554533149</v>
-      </c>
-      <c r="N13">
-        <v>16.4308554533149</v>
-      </c>
-      <c r="O13">
-        <v>0.1195098785740031</v>
-      </c>
-      <c r="P13">
-        <v>0.1195098785740031</v>
-      </c>
-      <c r="Q13">
-        <v>3.069512232516022</v>
-      </c>
-      <c r="R13">
-        <v>3.069512232516022</v>
-      </c>
-      <c r="S13">
-        <v>0.01468990570924207</v>
-      </c>
-      <c r="T13">
-        <v>0.01468990570924207</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4392866666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.31786</v>
+      </c>
+      <c r="I16">
+        <v>0.2224306864082776</v>
+      </c>
+      <c r="J16">
+        <v>0.2224306864082776</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>63.67711</v>
+      </c>
+      <c r="N16">
+        <v>191.03133</v>
+      </c>
+      <c r="O16">
+        <v>0.4250937452800914</v>
+      </c>
+      <c r="P16">
+        <v>0.4250937452800915</v>
+      </c>
+      <c r="Q16">
+        <v>27.97250539486667</v>
+      </c>
+      <c r="R16">
+        <v>251.7525485538</v>
+      </c>
+      <c r="S16">
+        <v>0.09455389355051624</v>
+      </c>
+      <c r="T16">
+        <v>0.09455389355051627</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4392866666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.31786</v>
+      </c>
+      <c r="I17">
+        <v>0.2224306864082776</v>
+      </c>
+      <c r="J17">
+        <v>0.2224306864082776</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>17.96553866666667</v>
+      </c>
+      <c r="N17">
+        <v>53.896616</v>
+      </c>
+      <c r="O17">
+        <v>0.119933805378222</v>
+      </c>
+      <c r="P17">
+        <v>0.119933805378222</v>
+      </c>
+      <c r="Q17">
+        <v>7.892021595751111</v>
+      </c>
+      <c r="R17">
+        <v>71.02819436176</v>
+      </c>
+      <c r="S17">
+        <v>0.0266769586538347</v>
+      </c>
+      <c r="T17">
+        <v>0.0266769586538347</v>
       </c>
     </row>
   </sheetData>
